--- a/raw_data/20200818_saline/20200818_Sensor1_Test_10.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_10.xlsx
@@ -1,1489 +1,1905 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7856E-2C62-46C5-885F-7877B408E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>8286.310083</v>
+        <v>8286.3100830000003</v>
       </c>
       <c r="B2" s="1">
-        <v>2.301753</v>
+        <v>2.3017530000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>897.089000</v>
+        <v>897.08900000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.136000</v>
+        <v>-195.136</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>8297.015765</v>
+        <v>8297.0157650000001</v>
       </c>
       <c r="G2" s="1">
-        <v>2.304727</v>
+        <v>2.3047270000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>914.836000</v>
+        <v>914.83600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.343000</v>
+        <v>-165.34299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>8307.455061</v>
+        <v>8307.4550610000006</v>
       </c>
       <c r="L2" s="1">
         <v>2.307626</v>
       </c>
       <c r="M2" s="1">
-        <v>938.266000</v>
+        <v>938.26599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.143000</v>
+        <v>-118.143</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>8317.919655</v>
+        <v>8317.9196549999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.310533</v>
+        <v>2.3105329999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>944.979000</v>
+        <v>944.97900000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>8328.135226</v>
+        <v>8328.1352260000003</v>
       </c>
       <c r="V2" s="1">
-        <v>2.313371</v>
+        <v>2.3133710000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>951.597000</v>
+        <v>951.59699999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.540900</v>
+        <v>-87.540899999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>8338.571548</v>
+        <v>8338.5715479999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.316270</v>
+        <v>2.3162699999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.972000</v>
+        <v>958.97199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.318000</v>
+        <v>-76.317999999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>8349.437407</v>
+        <v>8349.4374069999994</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.319288</v>
+        <v>2.3192879999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.782000</v>
+        <v>963.78200000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.201200</v>
+        <v>-74.2012</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8359.637632</v>
+        <v>8359.6376319999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.322122</v>
+        <v>2.3221219999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.054000</v>
+        <v>971.05399999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.918700</v>
+        <v>-78.918700000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>8369.921683</v>
+        <v>8369.9216830000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.324978</v>
+        <v>2.3249780000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.128000</v>
+        <v>979.12800000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.444300</v>
+        <v>-90.444299999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>8380.165557</v>
+        <v>8380.1655570000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.327824</v>
+        <v>2.3278240000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.949000</v>
+        <v>988.94899999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.961000</v>
+        <v>-107.961</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>8390.959527</v>
+        <v>8390.9595270000009</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.330822</v>
+        <v>2.3308219999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.127000</v>
+        <v>997.12699999999995</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.466000</v>
+        <v>-123.46599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>8401.924552</v>
+        <v>8401.9245520000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.333868</v>
+        <v>2.3338679999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.110000</v>
+        <v>1035.1099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.841000</v>
+        <v>-194.84100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>8412.942187</v>
+        <v>8412.9421870000006</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.336928</v>
+        <v>2.3369279999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.340000</v>
+        <v>1100.3399999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.393000</v>
+        <v>-311.39299999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8423.298656</v>
+        <v>8423.2986560000008</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.339805</v>
+        <v>2.3398050000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1206.560000</v>
+        <v>1206.56</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-496.331000</v>
+        <v>-496.33100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>8433.768206</v>
+        <v>8433.7682060000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.342713</v>
+        <v>2.3427129999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1327.190000</v>
+        <v>1327.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-700.720000</v>
+        <v>-700.72</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>8444.425248</v>
+        <v>8444.4252479999996</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.345674</v>
+        <v>2.3456739999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1462.600000</v>
+        <v>1462.6</v>
       </c>
       <c r="CA2" s="1">
-        <v>-918.602000</v>
+        <v>-918.60199999999998</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>8455.468674</v>
+        <v>8455.4686739999997</v>
       </c>
       <c r="CD2" s="1">
         <v>2.348741</v>
       </c>
       <c r="CE2" s="1">
-        <v>1821.110000</v>
+        <v>1821.11</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1436.170000</v>
+        <v>-1436.17</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>8287.008449</v>
+        <v>8287.0084490000008</v>
       </c>
       <c r="B3" s="1">
-        <v>2.301947</v>
+        <v>2.3019470000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>897.240000</v>
+        <v>897.24</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.368000</v>
+        <v>-195.36799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>8297.361938</v>
       </c>
       <c r="G3" s="1">
-        <v>2.304823</v>
+        <v>2.3048229999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>914.964000</v>
+        <v>914.96400000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.346000</v>
+        <v>-165.346</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>8307.803222</v>
+        <v>8307.8032220000005</v>
       </c>
       <c r="L3" s="1">
-        <v>2.307723</v>
+        <v>2.3077230000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>938.157000</v>
+        <v>938.15700000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.977000</v>
+        <v>-117.977</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>8318.282696</v>
+        <v>8318.2826960000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.310634</v>
+        <v>2.3106339999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>944.987000</v>
+        <v>944.98699999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.174000</v>
+        <v>-102.17400000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>8328.813257</v>
+        <v>8328.8132569999998</v>
       </c>
       <c r="V3" s="1">
-        <v>2.313559</v>
+        <v>2.3135590000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>951.683000</v>
+        <v>951.68299999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.581200</v>
+        <v>-87.581199999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>8339.257515</v>
+        <v>8339.2575149999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.316460</v>
+        <v>2.3164600000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.051000</v>
+        <v>959.05100000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.255900</v>
+        <v>-76.255899999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>8349.858013</v>
+        <v>8349.8580129999991</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.319405</v>
+        <v>2.3194050000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.797000</v>
+        <v>963.79700000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.211200</v>
+        <v>-74.211200000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>8359.989996</v>
+        <v>8359.9899960000002</v>
       </c>
       <c r="AK3" s="1">
         <v>2.322219</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.050000</v>
+        <v>971.05</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.968100</v>
+        <v>-78.968100000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>8370.284754</v>
+        <v>8370.2847540000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.325079</v>
+        <v>2.3250790000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.146000</v>
+        <v>979.14599999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.437500</v>
+        <v>-90.4375</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>8380.558390</v>
+        <v>8380.5583900000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.327933</v>
+        <v>2.3279329999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.946000</v>
+        <v>988.94600000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.962000</v>
+        <v>-107.962</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>8391.334969</v>
+        <v>8391.3349689999995</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.330926</v>
+        <v>2.3309259999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.117000</v>
+        <v>997.11699999999996</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.447000</v>
+        <v>-123.447</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>8402.340200</v>
+        <v>8402.3402000000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.333983</v>
+        <v>2.3339829999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.110000</v>
+        <v>1035.1099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.829000</v>
+        <v>-194.82900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>8413.048330</v>
+        <v>8413.0483299999996</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.336958</v>
+        <v>2.3369580000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.356000</v>
+        <v>-311.35599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>8423.427148</v>
+        <v>8423.4271480000007</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.339841</v>
+        <v>2.3398409999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-496.395000</v>
+        <v>-496.39499999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>8434.212127</v>
+        <v>8434.2121270000007</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.342837</v>
+        <v>2.3428369999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1327.160000</v>
+        <v>1327.16</v>
       </c>
       <c r="BV3" s="1">
-        <v>-700.757000</v>
+        <v>-700.75699999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>8444.909840</v>
+        <v>8444.9098400000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.345808</v>
+        <v>2.3458079999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1462.590000</v>
+        <v>1462.59</v>
       </c>
       <c r="CA3" s="1">
-        <v>-918.646000</v>
+        <v>-918.64599999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>8456.063377</v>
+        <v>8456.0633770000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.348906</v>
+        <v>2.3489059999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1820.850000</v>
+        <v>1820.85</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1437.840000</v>
+        <v>-1437.84</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>8287.351719</v>
+        <v>8287.3517190000002</v>
       </c>
       <c r="B4" s="1">
-        <v>2.302042</v>
+        <v>2.3020420000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>897.142000</v>
+        <v>897.14200000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.182000</v>
+        <v>-195.18199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>8297.704210</v>
+        <v>8297.7042099999999</v>
       </c>
       <c r="G4" s="1">
-        <v>2.304918</v>
+        <v>2.3049179999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>914.767000</v>
+        <v>914.76700000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.832000</v>
+        <v>-165.83199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>8308.461239</v>
+        <v>8308.4612390000002</v>
       </c>
       <c r="L4" s="1">
         <v>2.307906</v>
       </c>
       <c r="M4" s="1">
-        <v>938.213000</v>
+        <v>938.21299999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.060000</v>
+        <v>-118.06</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>8318.942374</v>
+        <v>8318.9423740000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.310817</v>
+        <v>2.3108170000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>945.027000</v>
+        <v>945.02700000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>8329.196666</v>
+        <v>8329.1966659999998</v>
       </c>
       <c r="V4" s="1">
         <v>2.313666</v>
       </c>
       <c r="W4" s="1">
-        <v>951.643000</v>
+        <v>951.64300000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.613000</v>
+        <v>-87.613</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>8339.660268</v>
+        <v>8339.6602679999996</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.316572</v>
+        <v>2.3165719999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.048000</v>
+        <v>959.048</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.307000</v>
+        <v>-76.307000000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>8350.202237</v>
+        <v>8350.2022369999995</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.319501</v>
+        <v>2.3195009999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.767000</v>
+        <v>963.76700000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.170400</v>
+        <v>-74.170400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>8360.340993</v>
+        <v>8360.3409929999998</v>
       </c>
       <c r="AK4" s="1">
         <v>2.322317</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.039000</v>
+        <v>971.03899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.928900</v>
+        <v>-78.928899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>8370.644850</v>
+        <v>8370.6448500000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.325179</v>
+        <v>2.3251789999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.155000</v>
+        <v>979.15499999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.442100</v>
+        <v>-90.442099999999996</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>8380.974568</v>
+        <v>8380.9745679999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.328048</v>
+        <v>2.3280479999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.938000</v>
+        <v>988.93799999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.960000</v>
+        <v>-107.96</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>8392.051685</v>
+        <v>8392.0516850000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.331125</v>
+        <v>2.3311250000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.121000</v>
+        <v>997.12099999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.455000</v>
+        <v>-123.455</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>8402.679959</v>
+        <v>8402.6799589999991</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.334078</v>
+        <v>2.3340779999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.090000</v>
+        <v>1035.0899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.873000</v>
+        <v>-194.87299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>8413.424329</v>
+        <v>8413.4243289999995</v>
       </c>
       <c r="BJ4" s="1">
         <v>2.337062</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.340000</v>
+        <v>1100.3399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.379000</v>
+        <v>-311.37900000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>8423.852683</v>
+        <v>8423.8526829999992</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.339959</v>
+        <v>2.3399589999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-496.413000</v>
+        <v>-496.41300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>8434.649919</v>
+        <v>8434.6499189999995</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.342958</v>
+        <v>2.3429579999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1327.010000</v>
+        <v>1327.01</v>
       </c>
       <c r="BV4" s="1">
-        <v>-700.811000</v>
+        <v>-700.81100000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>8445.358719</v>
+        <v>8445.3587189999998</v>
       </c>
       <c r="BY4" s="1">
         <v>2.345933</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1462.500000</v>
+        <v>1462.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-918.538000</v>
+        <v>-918.53800000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>8456.603058</v>
+        <v>8456.6030580000006</v>
       </c>
       <c r="CD4" s="1">
         <v>2.349056</v>
       </c>
       <c r="CE4" s="1">
-        <v>1821.760000</v>
+        <v>1821.76</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1436.920000</v>
+        <v>-1436.92</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>8287.692927</v>
+        <v>8287.6929270000001</v>
       </c>
       <c r="B5" s="1">
-        <v>2.302137</v>
+        <v>2.3021370000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>897.050000</v>
+        <v>897.05</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.221000</v>
+        <v>-195.221</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>8298.367329</v>
+        <v>8298.3673290000006</v>
       </c>
       <c r="G5" s="1">
-        <v>2.305102</v>
+        <v>2.3051020000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>914.516000</v>
+        <v>914.51599999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.576000</v>
+        <v>-165.57599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>8308.843370</v>
+        <v>8308.8433700000005</v>
       </c>
       <c r="L5" s="1">
-        <v>2.308012</v>
+        <v>2.3080120000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>938.111000</v>
+        <v>938.11099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.902000</v>
+        <v>-117.902</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>8319.329750</v>
+        <v>8319.3297500000008</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.310925</v>
+        <v>2.3109250000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>945.046000</v>
+        <v>945.04600000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>8329.540392</v>
+        <v>8329.5403920000008</v>
       </c>
       <c r="V5" s="1">
         <v>2.313761</v>
       </c>
       <c r="W5" s="1">
-        <v>951.692000</v>
+        <v>951.69200000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.490600</v>
+        <v>-87.490600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>8340.008956</v>
+        <v>8340.0089559999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.316669</v>
+        <v>2.3166690000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.002000</v>
+        <v>959.00199999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.292600</v>
+        <v>-76.292599999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>8350.545469</v>
+        <v>8350.5454690000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.319596</v>
+        <v>2.3195960000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.792000</v>
+        <v>963.79200000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.216300</v>
+        <v>-74.216300000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>8360.762063</v>
+        <v>8360.7620630000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.322434</v>
+        <v>2.3224339999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.036000</v>
+        <v>971.03599999999994</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.951600</v>
+        <v>-78.951599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>8371.055598</v>
+        <v>8371.0555980000008</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.325293</v>
+        <v>2.3252929999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.155000</v>
+        <v>979.15499999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.445800</v>
+        <v>-90.445800000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>8381.288003</v>
+        <v>8381.2880029999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.328136</v>
+        <v>2.3281360000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.941000</v>
+        <v>988.94100000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.960000</v>
+        <v>-107.96</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>8392.410790</v>
+        <v>8392.4107899999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.331225</v>
+        <v>2.3312249999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.439000</v>
+        <v>-123.43899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>8403.040055</v>
+        <v>8403.0400549999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.334178</v>
+        <v>2.3341780000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.110000</v>
+        <v>1035.1099999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.861000</v>
+        <v>-194.86099999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>8413.799768</v>
+        <v>8413.7997680000008</v>
       </c>
       <c r="BJ5" s="1">
         <v>2.337167</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.370000</v>
+        <v>-311.37</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>8424.252496</v>
+        <v>8424.2524959999992</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.340070</v>
+        <v>2.3400699999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-496.425000</v>
+        <v>-496.42500000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>8435.065742</v>
+        <v>8435.0657420000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.343074</v>
+        <v>2.3430740000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1326.950000</v>
+        <v>1326.95</v>
       </c>
       <c r="BV5" s="1">
-        <v>-700.858000</v>
+        <v>-700.85799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>8445.816528</v>
+        <v>8445.8165279999994</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.346060</v>
+        <v>2.34606</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1462.530000</v>
+        <v>1462.53</v>
       </c>
       <c r="CA5" s="1">
-        <v>-918.509000</v>
+        <v>-918.50900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>8457.139201</v>
@@ -1492,724 +1908,724 @@
         <v>2.349205</v>
       </c>
       <c r="CE5" s="1">
-        <v>1820.660000</v>
+        <v>1820.66</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1437.170000</v>
+        <v>-1437.17</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>8288.379391</v>
+        <v>8288.3793910000004</v>
       </c>
       <c r="B6" s="1">
-        <v>2.302328</v>
+        <v>2.3023280000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>897.029000</v>
+        <v>897.029</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.168000</v>
+        <v>-195.16800000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>8298.738865</v>
+        <v>8298.7388649999994</v>
       </c>
       <c r="G6" s="1">
-        <v>2.305205</v>
+        <v>2.3052049999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>914.994000</v>
+        <v>914.99400000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.829000</v>
+        <v>-165.82900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>8309.188084</v>
+        <v>8309.1880839999994</v>
       </c>
       <c r="L6" s="1">
-        <v>2.308108</v>
+        <v>2.3081079999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>938.145000</v>
+        <v>938.14499999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.089000</v>
+        <v>-118.089</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>8319.679429</v>
+        <v>8319.6794289999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.311022</v>
+        <v>2.3110219999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>945.011000</v>
+        <v>945.01099999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.235000</v>
+        <v>-102.235</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>8329.886135</v>
+        <v>8329.8861350000006</v>
       </c>
       <c r="V6" s="1">
-        <v>2.313857</v>
+        <v>2.3138570000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>951.694000</v>
+        <v>951.69399999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.583100</v>
+        <v>-87.583100000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>8340.594768</v>
+        <v>8340.5947680000008</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.316832</v>
+        <v>2.3168319999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.960000</v>
+        <v>958.96</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.271500</v>
+        <v>-76.271500000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>8350.960655</v>
+        <v>8350.9606550000008</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.319711</v>
+        <v>2.3197109999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.733000</v>
+        <v>963.73299999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.216100</v>
+        <v>-74.216099999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8361.053710</v>
+        <v>8361.0537100000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.322515</v>
+        <v>2.3225150000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.046000</v>
+        <v>971.04600000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.951600</v>
+        <v>-78.951599999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>8371.362593</v>
+        <v>8371.3625929999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.325378</v>
+        <v>2.3253780000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.134000</v>
+        <v>979.13400000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.443200</v>
+        <v>-90.443200000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8381.653059</v>
+        <v>8381.6530590000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.328237</v>
+        <v>2.3282370000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.941000</v>
+        <v>988.94100000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.962000</v>
+        <v>-107.962</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>8392.766916</v>
+        <v>8392.7669160000005</v>
       </c>
       <c r="AZ6" s="1">
         <v>2.331324</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.116000</v>
+        <v>997.11599999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.459000</v>
+        <v>-123.459</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>8403.401143</v>
+        <v>8403.4011429999991</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.334278</v>
+        <v>2.3342779999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.834000</v>
+        <v>-194.834</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>8414.551208</v>
+        <v>8414.5512080000008</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.337375</v>
+        <v>2.3373750000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.330000</v>
+        <v>1100.33</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.372000</v>
+        <v>-311.37200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>8424.680506</v>
+        <v>8424.6805060000006</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.340189</v>
+        <v>2.3401890000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1206.650000</v>
+        <v>1206.6500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-496.420000</v>
+        <v>-496.42</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>8435.485852</v>
+        <v>8435.4858519999998</v>
       </c>
       <c r="BT6" s="1">
         <v>2.343191</v>
       </c>
       <c r="BU6" s="1">
-        <v>1326.880000</v>
+        <v>1326.88</v>
       </c>
       <c r="BV6" s="1">
-        <v>-700.818000</v>
+        <v>-700.81799999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>8446.264414</v>
+        <v>8446.2644139999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.346185</v>
+        <v>2.3461850000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1462.600000</v>
+        <v>1462.6</v>
       </c>
       <c r="CA6" s="1">
-        <v>-918.650000</v>
+        <v>-918.65</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>8457.679839</v>
+        <v>8457.6798390000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.349356</v>
+        <v>2.3493560000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1821.330000</v>
+        <v>1821.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1438.330000</v>
+        <v>-1438.33</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>8288.732574</v>
+        <v>8288.7325739999997</v>
       </c>
       <c r="B7" s="1">
-        <v>2.302426</v>
+        <v>2.3024260000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>897.054000</v>
+        <v>897.05399999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>8299.085569</v>
+        <v>8299.0855690000008</v>
       </c>
       <c r="G7" s="1">
-        <v>2.305302</v>
+        <v>2.3053020000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>914.951000</v>
+        <v>914.95100000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.444000</v>
+        <v>-165.44399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>8309.533794</v>
+        <v>8309.5337940000009</v>
       </c>
       <c r="L7" s="1">
-        <v>2.308204</v>
+        <v>2.3082039999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>938.256000</v>
+        <v>938.25599999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.964000</v>
+        <v>-117.964</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>8320.027620</v>
+        <v>8320.0276200000008</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.311119</v>
+        <v>2.3111190000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>945.000000</v>
+        <v>945</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.221000</v>
+        <v>-102.221</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>8330.297318</v>
+        <v>8330.2973180000008</v>
       </c>
       <c r="V7" s="1">
         <v>2.313971</v>
       </c>
       <c r="W7" s="1">
-        <v>951.775000</v>
+        <v>951.77499999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.592800</v>
+        <v>-87.592799999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>8340.709306</v>
+        <v>8340.7093060000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.316864</v>
+        <v>2.3168639999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.913000</v>
+        <v>958.91300000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.311600</v>
+        <v>-76.311599999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>8351.238876</v>
+        <v>8351.2388759999994</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.319789</v>
+        <v>2.3197890000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.795000</v>
+        <v>963.79499999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.169600</v>
+        <v>-74.169600000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>8361.404878</v>
+        <v>8361.4048779999994</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.322612</v>
+        <v>2.3226119999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.039000</v>
+        <v>971.03899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.956300</v>
+        <v>-78.956299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>8371.723152</v>
+        <v>8371.7231520000005</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.325479</v>
+        <v>2.3254790000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.136000</v>
+        <v>979.13599999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.418300</v>
+        <v>-90.418300000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>8382.016130</v>
+        <v>8382.01613</v>
       </c>
       <c r="AU7" s="1">
         <v>2.328338</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.938000</v>
+        <v>988.93799999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.943000</v>
+        <v>-107.943</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>8393.485658</v>
+        <v>8393.4856579999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.331524</v>
+        <v>2.3315239999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.136000</v>
+        <v>997.13599999999997</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>8404.126791</v>
+        <v>8404.1267910000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.334480</v>
+        <v>2.3344800000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.845000</v>
+        <v>-194.845</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>8414.925688</v>
+        <v>8414.9256879999994</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.337479</v>
+        <v>2.3374790000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.366000</v>
+        <v>-311.36599999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>8425.070362</v>
+        <v>8425.0703620000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.340297</v>
+        <v>2.3402970000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-496.409000</v>
+        <v>-496.40899999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>8435.914395</v>
+        <v>8435.9143949999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.343310</v>
+        <v>2.3433099999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1326.890000</v>
+        <v>1326.89</v>
       </c>
       <c r="BV7" s="1">
-        <v>-700.820000</v>
+        <v>-700.82</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>8446.989069</v>
+        <v>8446.9890689999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.346386</v>
+        <v>2.3463859999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1462.610000</v>
+        <v>1462.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-918.489000</v>
+        <v>-918.48900000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>8458.527997</v>
+        <v>8458.5279969999992</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.349591</v>
+        <v>2.3495910000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1820.150000</v>
+        <v>1820.15</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1437.360000</v>
+        <v>-1437.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>8289.079519</v>
+        <v>8289.0795190000008</v>
       </c>
       <c r="B8" s="1">
-        <v>2.302522</v>
+        <v>2.3025220000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>897.056000</v>
+        <v>897.05600000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.150000</v>
+        <v>-195.15</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>8299.430293</v>
+        <v>8299.4302929999994</v>
       </c>
       <c r="G8" s="1">
-        <v>2.305397</v>
+        <v>2.3053970000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>915.011000</v>
+        <v>915.01099999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.440000</v>
+        <v>-165.44</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>8309.953410</v>
+        <v>8309.9534100000001</v>
       </c>
       <c r="L8" s="1">
-        <v>2.308320</v>
+        <v>2.3083200000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>938.229000</v>
+        <v>938.22900000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.062000</v>
+        <v>-118.062</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>8320.457189</v>
+        <v>8320.4571890000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.311238</v>
+        <v>2.3112379999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>944.987000</v>
+        <v>944.98699999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.185000</v>
+        <v>-102.185</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>8330.590919</v>
+        <v>8330.5909190000002</v>
       </c>
       <c r="V8" s="1">
-        <v>2.314053</v>
+        <v>2.3140529999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>951.660000</v>
+        <v>951.66</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.597500</v>
+        <v>-87.597499999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>8341.054052</v>
+        <v>8341.0540519999995</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.316959</v>
+        <v>2.3169590000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.008000</v>
+        <v>959.00800000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.245600</v>
+        <v>-76.245599999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>8351.581611</v>
+        <v>8351.5816109999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.319884</v>
+        <v>2.3198840000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.749000</v>
+        <v>963.74900000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.225100</v>
+        <v>-74.225099999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>8361.754557</v>
+        <v>8361.7545570000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.322710</v>
+        <v>2.3227099999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.046000</v>
+        <v>971.04600000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.952900</v>
+        <v>-78.9529</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>8372.084768</v>
+        <v>8372.0847680000006</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.325579</v>
+        <v>2.3255789999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.136000</v>
+        <v>979.13599999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.455700</v>
+        <v>-90.455699999999993</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>8382.746243</v>
+        <v>8382.7462429999996</v>
       </c>
       <c r="AU8" s="1">
         <v>2.328541</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.943000</v>
+        <v>988.94299999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.965000</v>
+        <v>-107.965</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>8393.873039</v>
+        <v>8393.8730390000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.331631</v>
+        <v>2.3316309999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.122000</v>
+        <v>997.12199999999996</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.444000</v>
+        <v>-123.444</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>8404.512677</v>
+        <v>8404.5126770000006</v>
       </c>
       <c r="BE8" s="1">
         <v>2.334587</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.130000</v>
+        <v>1035.1300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.847000</v>
+        <v>-194.84700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>8415.301509</v>
+        <v>8415.3015090000008</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.337584</v>
+        <v>2.3375840000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.340000</v>
+        <v>1100.3399999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.378000</v>
+        <v>-311.37799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>8425.488985</v>
@@ -2218,1133 +2634,1133 @@
         <v>2.340414</v>
       </c>
       <c r="BP8" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-496.387000</v>
+        <v>-496.387</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>8436.647018</v>
+        <v>8436.6470179999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.343513</v>
+        <v>2.3435130000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1326.780000</v>
+        <v>1326.78</v>
       </c>
       <c r="BV8" s="1">
-        <v>-700.747000</v>
+        <v>-700.74699999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>8447.133405</v>
+        <v>8447.1334050000005</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.346426</v>
+        <v>2.3464260000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1462.600000</v>
+        <v>1462.6</v>
       </c>
       <c r="CA8" s="1">
-        <v>-918.547000</v>
+        <v>-918.54700000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>8458.758637</v>
+        <v>8458.7586370000008</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.349655</v>
+        <v>2.3496549999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1820.350000</v>
+        <v>1820.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1437.340000</v>
+        <v>-1437.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>8289.490926</v>
+        <v>8289.4909260000004</v>
       </c>
       <c r="B9" s="1">
-        <v>2.302636</v>
+        <v>2.3026360000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>896.856000</v>
+        <v>896.85599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.210000</v>
+        <v>-195.21</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>8299.837472</v>
+        <v>8299.8374719999993</v>
       </c>
       <c r="G9" s="1">
-        <v>2.305510</v>
+        <v>2.3055099999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>914.699000</v>
+        <v>914.69899999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.887000</v>
+        <v>-165.887</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>8310.227521</v>
+        <v>8310.2275210000007</v>
       </c>
       <c r="L9" s="1">
-        <v>2.308397</v>
+        <v>2.3083969999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>938.296000</v>
+        <v>938.29600000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.875000</v>
+        <v>-117.875</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>8320.726772</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.311313</v>
+        <v>2.3113130000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>945.014000</v>
+        <v>945.01400000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.170000</v>
+        <v>-102.17</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>8330.934177</v>
+        <v>8330.9341769999992</v>
       </c>
       <c r="V9" s="1">
-        <v>2.314148</v>
+        <v>2.3141479999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>951.659000</v>
+        <v>951.65899999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.581400</v>
+        <v>-87.581400000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>8341.405225</v>
+        <v>8341.4052250000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.317057</v>
+        <v>2.3170570000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.056000</v>
+        <v>959.05600000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.310000</v>
+        <v>-76.31</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>8351.927818</v>
+        <v>8351.9278180000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.319980</v>
+        <v>2.3199800000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.785000</v>
+        <v>963.78499999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.257600</v>
+        <v>-74.257599999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>8362.451933</v>
+        <v>8362.4519330000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.322903</v>
+        <v>2.3229030000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.048000</v>
+        <v>971.048</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.958100</v>
+        <v>-78.958100000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>8372.811375</v>
+        <v>8372.8113749999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.325781</v>
+        <v>2.3257810000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.160000</v>
+        <v>979.16</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.434700</v>
+        <v>-90.434700000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>8383.132625</v>
+        <v>8383.1326250000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.328648</v>
+        <v>2.3286479999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.946000</v>
+        <v>988.94600000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.958000</v>
+        <v>-107.958</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>8394.253516</v>
+        <v>8394.2535160000007</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.331737</v>
+        <v>2.3317369999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.123000</v>
+        <v>997.12300000000005</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.463000</v>
+        <v>-123.46299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>8404.894629</v>
+        <v>8404.8946290000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.334693</v>
+        <v>2.3346930000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.859000</v>
+        <v>-194.85900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>8415.969766</v>
+        <v>8415.9697660000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.337769</v>
+        <v>2.3377690000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.320000</v>
+        <v>1100.32</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.358000</v>
+        <v>-311.358</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>8426.283082</v>
+        <v>8426.2830819999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.340634</v>
+        <v>2.3406340000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1206.560000</v>
+        <v>1206.56</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-496.431000</v>
+        <v>-496.43099999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>8436.788373</v>
+        <v>8436.7883729999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.343552</v>
+        <v>2.3435519999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1326.730000</v>
+        <v>1326.73</v>
       </c>
       <c r="BV9" s="1">
-        <v>-700.779000</v>
+        <v>-700.779</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>8447.560956</v>
+        <v>8447.5609559999994</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.346545</v>
+        <v>2.3465449999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1462.640000</v>
+        <v>1462.64</v>
       </c>
       <c r="CA9" s="1">
-        <v>-918.590000</v>
+        <v>-918.59</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>8459.281421</v>
+        <v>8459.2814209999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.349800</v>
+        <v>2.3498000000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1820.920000</v>
+        <v>1820.92</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1438.360000</v>
+        <v>-1438.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>8289.785585</v>
+        <v>8289.7855849999996</v>
       </c>
       <c r="B10" s="1">
         <v>2.302718</v>
       </c>
       <c r="C10" s="1">
-        <v>897.077000</v>
+        <v>897.077</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>8300.138544</v>
+        <v>8300.1385439999995</v>
       </c>
       <c r="G10" s="1">
-        <v>2.305594</v>
+        <v>2.3055940000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>914.843000</v>
+        <v>914.84299999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.503000</v>
+        <v>-165.50299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>8310.569410</v>
+        <v>8310.5694100000001</v>
       </c>
       <c r="L10" s="1">
-        <v>2.308492</v>
+        <v>2.3084920000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>938.155000</v>
+        <v>938.15499999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.956000</v>
+        <v>-117.956</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>8321.077193</v>
+        <v>8321.0771929999992</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.311410</v>
+        <v>2.31141</v>
       </c>
       <c r="R10" s="1">
-        <v>945.022000</v>
+        <v>945.02200000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.163000</v>
+        <v>-102.163</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>8331.278870</v>
+        <v>8331.2788700000001</v>
       </c>
       <c r="V10" s="1">
         <v>2.314244</v>
       </c>
       <c r="W10" s="1">
-        <v>951.745000</v>
+        <v>951.745</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.561600</v>
+        <v>-87.561599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>8342.099127</v>
+        <v>8342.0991269999995</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.317250</v>
+        <v>2.31725</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.955000</v>
+        <v>958.95500000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.285200</v>
+        <v>-76.285200000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>8352.613289</v>
+        <v>8352.6132890000008</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.320170</v>
+        <v>2.3201700000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.799000</v>
+        <v>963.79899999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.206500</v>
+        <v>-74.206500000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>8362.799628</v>
+        <v>8362.7996280000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.323000</v>
+        <v>2.323</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.032000</v>
+        <v>971.03200000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.939100</v>
+        <v>-78.939099999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>8373.189327</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.325886</v>
+        <v>2.3258860000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.142000</v>
+        <v>979.14200000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.446400</v>
+        <v>-90.446399999999997</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>8383.500690</v>
+        <v>8383.5006900000008</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.328750</v>
+        <v>2.3287499999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.949000</v>
+        <v>988.94899999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.967000</v>
+        <v>-107.967</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>8394.915586</v>
+        <v>8394.9155859999992</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.331921</v>
+        <v>2.3319209999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.120000</v>
+        <v>997.12</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>8405.553316</v>
+        <v>8405.5533159999995</v>
       </c>
       <c r="BE10" s="1">
         <v>2.334876</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.100000</v>
+        <v>1035.0999999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.843000</v>
+        <v>-194.84299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>8416.080406</v>
+        <v>8416.0804059999991</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.337800</v>
+        <v>2.3378000000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.320000</v>
+        <v>1100.32</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.393000</v>
+        <v>-311.39299999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>8426.725017</v>
+        <v>8426.7250170000007</v>
       </c>
       <c r="BO10" s="1">
         <v>2.340757</v>
       </c>
       <c r="BP10" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-496.462000</v>
+        <v>-496.46199999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>8437.205979</v>
+        <v>8437.2059790000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.343668</v>
+        <v>2.3436680000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1326.700000</v>
+        <v>1326.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-700.701000</v>
+        <v>-700.70100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>8447.976640</v>
+        <v>8447.9766400000008</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.346660</v>
+        <v>2.34666</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1462.590000</v>
+        <v>1462.59</v>
       </c>
       <c r="CA10" s="1">
-        <v>-918.646000</v>
+        <v>-918.64599999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>8459.797588</v>
+        <v>8459.7975879999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.349944</v>
+        <v>2.3499439999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1820.680000</v>
+        <v>1820.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1438.000000</v>
+        <v>-1438</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>8290.123356</v>
+        <v>8290.1233560000001</v>
       </c>
       <c r="B11" s="1">
-        <v>2.302812</v>
+        <v>2.3028119999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>897.078000</v>
+        <v>897.07799999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.382000</v>
+        <v>-195.38200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>8300.483263</v>
+        <v>8300.4832630000001</v>
       </c>
       <c r="G11" s="1">
-        <v>2.305690</v>
+        <v>2.3056899999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>914.843000</v>
+        <v>914.84299999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.516000</v>
+        <v>-165.51599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>8310.915617</v>
+        <v>8310.9156170000006</v>
       </c>
       <c r="L11" s="1">
-        <v>2.308588</v>
+        <v>2.3085879999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.215000</v>
+        <v>938.21500000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.777000</v>
+        <v>-117.777</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>8321.428324</v>
+        <v>8321.4283240000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.311508</v>
+        <v>2.3115079999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>945.037000</v>
+        <v>945.03700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.212000</v>
+        <v>-102.212</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>8331.965828</v>
+        <v>8331.9658280000003</v>
       </c>
       <c r="V11" s="1">
         <v>2.314435</v>
       </c>
       <c r="W11" s="1">
-        <v>951.727000</v>
+        <v>951.72699999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.527300</v>
+        <v>-87.527299999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>8342.450263</v>
+        <v>8342.4502630000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.317347</v>
+        <v>2.3173469999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.044000</v>
+        <v>959.04399999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.305200</v>
+        <v>-76.305199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>8352.956025</v>
+        <v>8352.9560249999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.320266</v>
+        <v>2.3202660000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.788000</v>
+        <v>963.78800000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.202400</v>
+        <v>-74.202399999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8363.147323</v>
+        <v>8363.1473229999992</v>
       </c>
       <c r="AK11" s="1">
         <v>2.323096</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.041000</v>
+        <v>971.04100000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.942900</v>
+        <v>-78.942899999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>8373.579183</v>
+        <v>8373.5791829999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.325994</v>
+        <v>2.3259940000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.150000</v>
+        <v>979.15</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.445400</v>
+        <v>-90.445400000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>8384.168800</v>
+        <v>8384.1687999999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.328936</v>
+        <v>2.3289360000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.930000</v>
+        <v>988.93</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.970000</v>
+        <v>-107.97</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>8395.336731</v>
+        <v>8395.3367309999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.332038</v>
+        <v>2.3320379999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.129000</v>
+        <v>997.12900000000002</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.457000</v>
+        <v>-123.45699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>8405.975875</v>
+        <v>8405.9758750000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.334993</v>
+        <v>2.3349929999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.865000</v>
+        <v>-194.86500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>8416.454389</v>
+        <v>8416.4543890000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>2.337904</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.370000</v>
+        <v>-311.37</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>8427.121815</v>
+        <v>8427.1218150000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.340867</v>
+        <v>2.3408669999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-496.440000</v>
+        <v>-496.44</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>8437.632041</v>
+        <v>8437.6320410000008</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.343787</v>
+        <v>2.3437869999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1326.650000</v>
+        <v>1326.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-700.656000</v>
+        <v>-700.65599999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>8448.430477</v>
+        <v>8448.4304769999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.346786</v>
+        <v>2.3467859999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1462.570000</v>
+        <v>1462.57</v>
       </c>
       <c r="CA11" s="1">
-        <v>-918.606000</v>
+        <v>-918.60599999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>8460.351292</v>
+        <v>8460.3512919999994</v>
       </c>
       <c r="CD11" s="1">
         <v>2.350098</v>
       </c>
       <c r="CE11" s="1">
-        <v>1820.290000</v>
+        <v>1820.29</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1437.080000</v>
+        <v>-1437.08</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>8290.468075</v>
+        <v>8290.4680750000007</v>
       </c>
       <c r="B12" s="1">
         <v>2.302908</v>
       </c>
       <c r="C12" s="1">
-        <v>897.330000</v>
+        <v>897.33</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.164000</v>
+        <v>-195.16399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>8300.828974</v>
       </c>
       <c r="G12" s="1">
-        <v>2.305786</v>
+        <v>2.3057859999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>915.509000</v>
+        <v>915.50900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.202000</v>
+        <v>-165.202</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>8311.608033</v>
+        <v>8311.6080330000004</v>
       </c>
       <c r="L12" s="1">
-        <v>2.308780</v>
+        <v>2.3087800000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>938.387000</v>
+        <v>938.38699999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.057000</v>
+        <v>-118.057</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>8322.122262</v>
+        <v>8322.1222620000008</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.311701</v>
+        <v>2.3117009999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>945.022000</v>
+        <v>945.02200000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.227000</v>
+        <v>-102.227</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>8332.309565</v>
+        <v>8332.3095649999996</v>
       </c>
       <c r="V12" s="1">
-        <v>2.314530</v>
+        <v>2.31453</v>
       </c>
       <c r="W12" s="1">
-        <v>951.685000</v>
+        <v>951.68499999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.529500</v>
+        <v>-87.529499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>8342.798951</v>
+        <v>8342.7989510000007</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.317444</v>
+        <v>2.3174440000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.962000</v>
+        <v>958.96199999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.314900</v>
+        <v>-76.314899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>8353.293305</v>
+        <v>8353.2933049999992</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.320359</v>
+        <v>2.3203589999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.759000</v>
+        <v>963.75900000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.217900</v>
+        <v>-74.2179</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8363.787692</v>
+        <v>8363.7876919999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.323274</v>
+        <v>2.3232740000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.064000</v>
+        <v>971.06399999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.964200</v>
+        <v>-78.964200000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>8374.032526</v>
+        <v>8374.0325260000009</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.326120</v>
+        <v>2.32612</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.145000</v>
+        <v>979.14499999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.441800</v>
+        <v>-90.441800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>8384.626575</v>
+        <v>8384.6265750000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.329063</v>
+        <v>2.3290630000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.944000</v>
+        <v>988.94399999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.956000</v>
+        <v>-107.956</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>8395.711168</v>
+        <v>8395.7111679999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.332142</v>
+        <v>2.3321420000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.150000</v>
+        <v>997.15</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.455000</v>
+        <v>-123.455</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>8406.367746</v>
+        <v>8406.3677459999999</v>
       </c>
       <c r="BE12" s="1">
         <v>2.335102</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.100000</v>
+        <v>1035.0999999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.838000</v>
+        <v>-194.83799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>8416.831846</v>
+        <v>8416.8318459999991</v>
       </c>
       <c r="BJ12" s="1">
         <v>2.338009</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.383000</v>
+        <v>-311.38299999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>8427.543943</v>
+        <v>8427.5439430000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.340984</v>
+        <v>2.3409840000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-496.473000</v>
+        <v>-496.47300000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>8438.046697</v>
+        <v>8438.0466969999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.343902</v>
+        <v>2.3439019999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1326.720000</v>
+        <v>1326.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-700.604000</v>
+        <v>-700.60400000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>8448.879322</v>
+        <v>8448.8793220000007</v>
       </c>
       <c r="BY12" s="1">
         <v>2.346911</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1462.620000</v>
+        <v>1462.62</v>
       </c>
       <c r="CA12" s="1">
-        <v>-918.609000</v>
+        <v>-918.60900000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>8460.882511</v>
+        <v>8460.8825109999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.350245</v>
+        <v>2.3502450000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1820.680000</v>
+        <v>1820.68</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1438.230000</v>
+        <v>-1438.23</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>8291.149083</v>
+        <v>8291.1490830000002</v>
       </c>
       <c r="B13" s="1">
-        <v>2.303097</v>
+        <v>2.3030970000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>897.122000</v>
+        <v>897.12199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.264000</v>
+        <v>-195.26400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>8301.516462</v>
+        <v>8301.5164619999996</v>
       </c>
       <c r="G13" s="1">
-        <v>2.305977</v>
+        <v>2.3059769999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>914.952000</v>
+        <v>914.952</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.348000</v>
+        <v>-165.34800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>8311.955232</v>
+        <v>8311.9552320000003</v>
       </c>
       <c r="L13" s="1">
-        <v>2.308876</v>
+        <v>2.3088760000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>937.957000</v>
+        <v>937.95699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.043000</v>
+        <v>-118.04300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>8322.472898</v>
@@ -3353,2446 +3769,2446 @@
         <v>2.311798</v>
       </c>
       <c r="R13" s="1">
-        <v>945.006000</v>
+        <v>945.00599999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>8332.653316</v>
+        <v>8332.6533159999999</v>
       </c>
       <c r="V13" s="1">
-        <v>2.314626</v>
+        <v>2.3146260000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>951.684000</v>
+        <v>951.68399999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.522000</v>
+        <v>-87.522000000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>8343.446229</v>
+        <v>8343.4462289999992</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.317624</v>
+        <v>2.3176239999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.956000</v>
+        <v>958.95600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.226500</v>
+        <v>-76.226500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>8353.942103</v>
+        <v>8353.9421029999994</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.320539</v>
+        <v>2.3205390000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.780000</v>
+        <v>963.78</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.201700</v>
+        <v>-74.201700000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>8364.192890</v>
+        <v>8364.1928900000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.323387</v>
+        <v>2.3233869999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.062000</v>
+        <v>971.06200000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.970400</v>
+        <v>-78.970399999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>8374.300861</v>
+        <v>8374.3008609999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.326195</v>
+        <v>2.3261949999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.129000</v>
+        <v>979.12900000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.429300</v>
+        <v>-90.429299999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>8384.989647</v>
+        <v>8384.9896470000003</v>
       </c>
       <c r="AU13" s="1">
         <v>2.329164</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.956000</v>
+        <v>988.95600000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.954000</v>
+        <v>-107.95399999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>8396.091601</v>
+        <v>8396.0916010000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.332248</v>
+        <v>2.3322479999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.122000</v>
+        <v>997.12199999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.462000</v>
+        <v>-123.462</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>8406.730786</v>
+        <v>8406.7307860000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.335203</v>
+        <v>2.3352029999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.130000</v>
+        <v>1035.1300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.847000</v>
+        <v>-194.84700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>8417.252453</v>
+        <v>8417.2524529999992</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.338126</v>
+        <v>2.3381259999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.340000</v>
+        <v>1100.3399999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.372000</v>
+        <v>-311.37200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>8427.942231</v>
+        <v>8427.9422310000009</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.341095</v>
+        <v>2.3410950000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-496.439000</v>
+        <v>-496.43900000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>8438.460892</v>
+        <v>8438.4608919999991</v>
       </c>
       <c r="BT13" s="1">
         <v>2.344017</v>
       </c>
       <c r="BU13" s="1">
-        <v>1326.680000</v>
+        <v>1326.68</v>
       </c>
       <c r="BV13" s="1">
-        <v>-700.494000</v>
+        <v>-700.49400000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>8449.335146</v>
+        <v>8449.3351459999994</v>
       </c>
       <c r="BY13" s="1">
         <v>2.347038</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1462.570000</v>
+        <v>1462.57</v>
       </c>
       <c r="CA13" s="1">
-        <v>-918.590000</v>
+        <v>-918.59</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>8461.397542</v>
+        <v>8461.3975420000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.350388</v>
+        <v>2.3503880000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.780000</v>
+        <v>1821.78</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1437.980000</v>
+        <v>-1437.98</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>8291.491786</v>
+        <v>8291.4917860000005</v>
       </c>
       <c r="B14" s="1">
-        <v>2.303192</v>
+        <v>2.3031920000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>897.150000</v>
+        <v>897.15</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.933000</v>
+        <v>-194.93299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8301.862637</v>
+        <v>8301.8626370000002</v>
       </c>
       <c r="G14" s="1">
         <v>2.306073</v>
       </c>
       <c r="H14" s="1">
-        <v>914.859000</v>
+        <v>914.85900000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.521000</v>
+        <v>-165.52099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>8312.299455</v>
+        <v>8312.2994550000003</v>
       </c>
       <c r="L14" s="1">
-        <v>2.308972</v>
+        <v>2.3089719999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>938.272000</v>
+        <v>938.27200000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.050000</v>
+        <v>-118.05</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>8322.820626</v>
+        <v>8322.8206260000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.311895</v>
+        <v>2.3118949999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>945.007000</v>
+        <v>945.00699999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.165000</v>
+        <v>-102.16500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>8333.304035</v>
+        <v>8333.3040349999992</v>
       </c>
       <c r="V14" s="1">
-        <v>2.314807</v>
+        <v>2.3148070000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>951.756000</v>
+        <v>951.75599999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.559600</v>
+        <v>-87.559600000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>8343.843030</v>
+        <v>8343.84303</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.317734</v>
+        <v>2.3177340000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.989000</v>
+        <v>958.98900000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.294800</v>
+        <v>-76.294799999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>8354.330440</v>
+        <v>8354.3304399999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.320647</v>
+        <v>2.3206470000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.784000</v>
+        <v>963.78399999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.228700</v>
+        <v>-74.228700000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>8364.541119</v>
+        <v>8364.5411189999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.323484</v>
+        <v>2.3234840000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.045000</v>
+        <v>971.04499999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.957900</v>
+        <v>-78.957899999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>8374.659964</v>
+        <v>8374.6599640000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.326294</v>
+        <v>2.3262939999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.147000</v>
+        <v>979.14700000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.432600</v>
+        <v>-90.432599999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>8385.356226</v>
+        <v>8385.3562259999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.329266</v>
+        <v>2.3292660000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.943000</v>
+        <v>988.94299999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.971000</v>
+        <v>-107.971</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>8396.506255</v>
+        <v>8396.5062550000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>2.332363</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.132000</v>
+        <v>997.13199999999995</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.436000</v>
+        <v>-123.43600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>8407.165281</v>
+        <v>8407.1652809999996</v>
       </c>
       <c r="BE14" s="1">
         <v>2.335324</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.866000</v>
+        <v>-194.86600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>8417.606100</v>
+        <v>8417.6061000000009</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.338224</v>
+        <v>2.3382239999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.384000</v>
+        <v>-311.38400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>8428.364790</v>
+        <v>8428.3647899999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.341212</v>
+        <v>2.3412120000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-496.441000</v>
+        <v>-496.44099999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>8438.880504</v>
+        <v>8438.8805040000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.344133</v>
+        <v>2.3441329999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1326.640000</v>
+        <v>1326.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-700.497000</v>
+        <v>-700.49699999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>8449.785049</v>
+        <v>8449.7850490000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.347163</v>
+        <v>2.3471630000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1462.720000</v>
+        <v>1462.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-918.714000</v>
+        <v>-918.71400000000006</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>8461.919177</v>
+        <v>8461.9191769999998</v>
       </c>
       <c r="CD14" s="1">
         <v>2.350533</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.430000</v>
+        <v>1821.43</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1436.640000</v>
+        <v>-1436.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>8291.836010</v>
+        <v>8291.8360100000009</v>
       </c>
       <c r="B15" s="1">
-        <v>2.303288</v>
+        <v>2.3032879999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>897.083000</v>
+        <v>897.08299999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.057000</v>
+        <v>-195.05699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>8302.203916</v>
+        <v>8302.2039160000004</v>
       </c>
       <c r="G15" s="1">
         <v>2.306168</v>
       </c>
       <c r="H15" s="1">
-        <v>914.489000</v>
+        <v>914.48900000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.570000</v>
+        <v>-165.57</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>8312.953678</v>
+        <v>8312.9536779999999</v>
       </c>
       <c r="L15" s="1">
-        <v>2.309154</v>
+        <v>2.3091539999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>938.239000</v>
+        <v>938.23900000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.008000</v>
+        <v>-118.008</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>8323.247184</v>
+        <v>8323.2471839999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.312013</v>
+        <v>2.3120129999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>945.038000</v>
+        <v>945.03800000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>8333.689954</v>
+        <v>8333.6899539999995</v>
       </c>
       <c r="V15" s="1">
-        <v>2.314914</v>
+        <v>2.3149139999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>951.693000</v>
+        <v>951.69299999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.581700</v>
+        <v>-87.581699999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>8344.193206</v>
+        <v>8344.1932059999999</v>
       </c>
       <c r="AA15" s="1">
         <v>2.317831</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.005000</v>
+        <v>959.005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.256100</v>
+        <v>-76.256100000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>8354.673834</v>
+        <v>8354.6738339999993</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.320743</v>
+        <v>2.3207429999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.770000</v>
+        <v>963.77</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.219500</v>
+        <v>-74.219499999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>8364.891258</v>
+        <v>8364.8912579999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.323581</v>
+        <v>2.3235809999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.035000</v>
+        <v>971.03499999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.965200</v>
+        <v>-78.965199999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>8375.069164</v>
+        <v>8375.0691640000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.326408</v>
+        <v>2.3264079999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.129000</v>
+        <v>979.12900000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.438600</v>
+        <v>-90.438599999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>8385.773855</v>
+        <v>8385.7738549999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.329382</v>
+        <v>2.3293819999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.938000</v>
+        <v>988.93799999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.963000</v>
+        <v>-107.96299999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>8396.807857</v>
+        <v>8396.8078569999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.332447</v>
+        <v>2.3324470000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.137000</v>
+        <v>997.13699999999994</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.457000</v>
+        <v>-123.45699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>8407.452466</v>
+        <v>8407.4524660000006</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.335403</v>
+        <v>2.3354029999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.842000</v>
+        <v>-194.84200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>8417.981539</v>
+        <v>8417.9815390000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.338328</v>
+        <v>2.3383280000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.380000</v>
+        <v>1100.3800000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.370000</v>
+        <v>-311.37</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>8428.758117</v>
+        <v>8428.7581169999994</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.341322</v>
+        <v>2.3413219999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-496.432000</v>
+        <v>-496.43200000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>8439.294631</v>
+        <v>8439.2946310000007</v>
       </c>
       <c r="BT15" s="1">
         <v>2.344249</v>
       </c>
       <c r="BU15" s="1">
-        <v>1326.760000</v>
+        <v>1326.76</v>
       </c>
       <c r="BV15" s="1">
-        <v>-700.488000</v>
+        <v>-700.48800000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>8450.206650</v>
+        <v>8450.2066500000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.347280</v>
+        <v>2.34728</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1462.510000</v>
+        <v>1462.51</v>
       </c>
       <c r="CA15" s="1">
-        <v>-918.549000</v>
+        <v>-918.54899999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>8462.431016</v>
+        <v>8462.4310160000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.350675</v>
+        <v>2.3506749999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1821.760000</v>
+        <v>1821.76</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1436.810000</v>
+        <v>-1436.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>8292.480811</v>
+        <v>8292.4808109999994</v>
       </c>
       <c r="B16" s="1">
-        <v>2.303467</v>
+        <v>2.3034669999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>897.117000</v>
+        <v>897.11699999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.414000</v>
+        <v>-195.41399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>8302.857117</v>
+        <v>8302.8571169999996</v>
       </c>
       <c r="G16" s="1">
         <v>2.306349</v>
       </c>
       <c r="H16" s="1">
-        <v>914.989000</v>
+        <v>914.98900000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.691000</v>
+        <v>-165.691</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>8313.336622</v>
+        <v>8313.3366220000007</v>
       </c>
       <c r="L16" s="1">
-        <v>2.309260</v>
+        <v>2.3092600000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>938.169000</v>
+        <v>938.16899999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.957000</v>
+        <v>-117.95699999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>8323.534336</v>
+        <v>8323.5343360000006</v>
       </c>
       <c r="Q16" s="1">
         <v>2.312093</v>
       </c>
       <c r="R16" s="1">
-        <v>945.031000</v>
+        <v>945.03099999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.179000</v>
+        <v>-102.179</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>8334.038152</v>
+        <v>8334.0381519999992</v>
       </c>
       <c r="V16" s="1">
-        <v>2.315011</v>
+        <v>2.3150110000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>951.724000</v>
+        <v>951.72400000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.570800</v>
+        <v>-87.570800000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>8344.540408</v>
+        <v>8344.5404080000008</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.317928</v>
+        <v>2.3179280000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.948000</v>
+        <v>958.94799999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.282600</v>
+        <v>-76.282600000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>8355.017398</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.320838</v>
+        <v>2.3208380000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.790000</v>
+        <v>963.79</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.211300</v>
+        <v>-74.211299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>8365.319801</v>
+        <v>8365.3198009999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.323700</v>
+        <v>2.3237000000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.064000</v>
+        <v>971.06399999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.956300</v>
+        <v>-78.956299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>8375.378203</v>
+        <v>8375.3782030000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.326494</v>
+        <v>2.3264939999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.138000</v>
+        <v>979.13800000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.458000</v>
+        <v>-90.457999999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>8386.084317</v>
+        <v>8386.0843170000007</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.329468</v>
+        <v>2.3294679999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.939000</v>
+        <v>988.93899999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.959000</v>
+        <v>-107.959</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>8397.164446</v>
+        <v>8397.1644460000007</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.332546</v>
+        <v>2.3325459999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.123000</v>
+        <v>997.12300000000005</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.447000</v>
+        <v>-123.447</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>8407.815537</v>
+        <v>8407.8155370000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.335504</v>
+        <v>2.3355039999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.100000</v>
+        <v>1035.0999999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.845000</v>
+        <v>-194.845</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>8418.358994</v>
+        <v>8418.3589940000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.338433</v>
+        <v>2.3384330000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.374000</v>
+        <v>-311.37400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>8429.180708</v>
+        <v>8429.1807079999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.341439</v>
+        <v>2.3414389999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-496.447000</v>
+        <v>-496.447</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>8439.726183</v>
+        <v>8439.7261830000007</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.344368</v>
+        <v>2.3443679999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1326.680000</v>
+        <v>1326.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-700.354000</v>
+        <v>-700.35400000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>8450.628216</v>
+        <v>8450.6282159999992</v>
       </c>
       <c r="BY16" s="1">
         <v>2.347397</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1462.600000</v>
+        <v>1462.6</v>
       </c>
       <c r="CA16" s="1">
-        <v>-918.680000</v>
+        <v>-918.68</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>8462.989017</v>
+        <v>8462.9890169999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.350830</v>
+        <v>2.3508300000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1821.910000</v>
+        <v>1821.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1437.980000</v>
+        <v>-1437.98</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>8292.859294</v>
+        <v>8292.8592939999999</v>
       </c>
       <c r="B17" s="1">
         <v>2.303572</v>
       </c>
       <c r="C17" s="1">
-        <v>897.222000</v>
+        <v>897.22199999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.143000</v>
+        <v>-195.143</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>8303.238571</v>
+        <v>8303.2385709999999</v>
       </c>
       <c r="G17" s="1">
-        <v>2.306455</v>
+        <v>2.3064550000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>914.669000</v>
+        <v>914.66899999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.575000</v>
+        <v>-165.57499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>8313.684317</v>
+        <v>8313.6843169999993</v>
       </c>
       <c r="L17" s="1">
-        <v>2.309357</v>
+        <v>2.3093569999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>938.171000</v>
+        <v>938.17100000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.965000</v>
+        <v>-117.965</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>8323.882031</v>
+        <v>8323.8820309999992</v>
       </c>
       <c r="Q17" s="1">
         <v>2.312189</v>
       </c>
       <c r="R17" s="1">
-        <v>945.031000</v>
+        <v>945.03099999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>8334.381346</v>
+        <v>8334.3813460000001</v>
       </c>
       <c r="V17" s="1">
-        <v>2.315106</v>
+        <v>2.3151060000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>951.718000</v>
+        <v>951.71799999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.536500</v>
+        <v>-87.536500000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>8344.961011</v>
+        <v>8344.9610109999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.318045</v>
+        <v>2.3180450000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.144000</v>
+        <v>959.14400000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.330800</v>
+        <v>-76.330799999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>8355.430566</v>
+        <v>8355.4305660000009</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.320953</v>
+        <v>2.3209529999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.216000</v>
+        <v>-74.215999999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>8365.600077</v>
+        <v>8365.6000769999991</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.323778</v>
+        <v>2.3237779999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.055000</v>
+        <v>971.05499999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.953600</v>
+        <v>-78.953599999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>8375.741278</v>
+        <v>8375.7412779999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.326595</v>
+        <v>2.3265950000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.130000</v>
+        <v>979.13</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.453500</v>
+        <v>-90.453500000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>8386.449870</v>
+        <v>8386.4498700000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.329569</v>
+        <v>2.3295689999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.934000</v>
+        <v>988.93399999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.967000</v>
+        <v>-107.967</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>8397.528046</v>
+        <v>8397.5280459999994</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.332647</v>
+        <v>2.3326470000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.123000</v>
+        <v>997.12300000000005</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>8408.394400</v>
+        <v>8408.3943999999992</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.335665</v>
+        <v>2.3356650000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.855000</v>
+        <v>-194.85499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>8419.128786</v>
+        <v>8419.1287859999993</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.338647</v>
+        <v>2.3386469999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.363000</v>
+        <v>-311.363</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>8429.578996</v>
+        <v>8429.5789960000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.341550</v>
+        <v>2.3415499999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-496.499000</v>
+        <v>-496.49900000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>8440.126421</v>
+        <v>8440.1264210000008</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.344480</v>
+        <v>2.3444799999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1326.820000</v>
+        <v>1326.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-700.282000</v>
+        <v>-700.28200000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>8451.043897</v>
+        <v>8451.0438969999996</v>
       </c>
       <c r="BY17" s="1">
         <v>2.347512</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1462.660000</v>
+        <v>1462.66</v>
       </c>
       <c r="CA17" s="1">
-        <v>-918.646000</v>
+        <v>-918.64599999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>8463.817874</v>
+        <v>8463.8178740000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.351061</v>
+        <v>2.3510610000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.530000</v>
+        <v>1821.53</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1436.900000</v>
+        <v>-1436.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>8293.203480</v>
+        <v>8293.2034800000001</v>
       </c>
       <c r="B18" s="1">
         <v>2.303668</v>
       </c>
       <c r="C18" s="1">
-        <v>897.194000</v>
+        <v>897.19399999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.172000</v>
+        <v>-195.172</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>8303.584250</v>
+        <v>8303.5842499999999</v>
       </c>
       <c r="G18" s="1">
-        <v>2.306551</v>
+        <v>2.3065509999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>914.413000</v>
+        <v>914.41300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.418000</v>
+        <v>-165.41800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>8314.029005</v>
+        <v>8314.0290050000003</v>
       </c>
       <c r="L18" s="1">
         <v>2.309453</v>
       </c>
       <c r="M18" s="1">
-        <v>938.105000</v>
+        <v>938.10500000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.119000</v>
+        <v>-118.119</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>8324.297680</v>
+        <v>8324.2976799999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.312305</v>
+        <v>2.3123049999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>945.036000</v>
+        <v>945.03599999999994</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>8334.798017</v>
+        <v>8334.7980169999992</v>
       </c>
       <c r="V18" s="1">
-        <v>2.315222</v>
+        <v>2.3152219999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>951.757000</v>
+        <v>951.75699999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.619500</v>
+        <v>-87.619500000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>8345.243235</v>
+        <v>8345.2432349999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.318123</v>
+        <v>2.3181229999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.043000</v>
+        <v>959.04300000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.316300</v>
+        <v>-76.316299999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>8355.730645</v>
+        <v>8355.7306449999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.321036</v>
+        <v>2.3210359999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.772000</v>
+        <v>963.77200000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.206600</v>
+        <v>-74.206599999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>8365.943768</v>
+        <v>8365.9437679999992</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.323873</v>
+        <v>2.3238729999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.048000</v>
+        <v>971.048</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.953200</v>
+        <v>-78.953199999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>8376.099354</v>
+        <v>8376.0993539999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.326694</v>
+        <v>2.3266939999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.144000</v>
+        <v>979.14400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.440700</v>
+        <v>-90.440700000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>8386.812478</v>
+        <v>8386.8124779999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.329670</v>
+        <v>2.3296700000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.958000</v>
+        <v>988.95799999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.974000</v>
+        <v>-107.974</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>8398.242782</v>
+        <v>8398.2427819999994</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.332845</v>
+        <v>2.3328449999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.134000</v>
+        <v>997.13400000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>8408.928559</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.335813</v>
+        <v>2.3358129999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>8419.506275</v>
+        <v>8419.5062749999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.338752</v>
+        <v>2.3387519999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.340000</v>
+        <v>1100.3399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.397000</v>
+        <v>-311.39699999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>8429.999603</v>
+        <v>8429.9996030000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.341667</v>
+        <v>2.3416670000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-496.435000</v>
+        <v>-496.435</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>8440.538102</v>
+        <v>8440.5381020000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.344594</v>
+        <v>2.3445939999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1326.860000</v>
+        <v>1326.86</v>
       </c>
       <c r="BV18" s="1">
-        <v>-700.333000</v>
+        <v>-700.33299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>8451.767068</v>
+        <v>8451.7670679999992</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.347713</v>
+        <v>2.3477130000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1462.560000</v>
+        <v>1462.56</v>
       </c>
       <c r="CA18" s="1">
-        <v>-918.653000</v>
+        <v>-918.65300000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>8464.068806</v>
+        <v>8464.0688059999993</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.351130</v>
+        <v>2.3511299999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1820.510000</v>
+        <v>1820.51</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1437.350000</v>
+        <v>-1437.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>8293.545224</v>
+        <v>8293.5452239999995</v>
       </c>
       <c r="B19" s="1">
         <v>2.303763</v>
       </c>
       <c r="C19" s="1">
-        <v>897.104000</v>
+        <v>897.10400000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.243000</v>
+        <v>-195.24299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>8303.929962</v>
+        <v>8303.9299620000002</v>
       </c>
       <c r="G19" s="1">
-        <v>2.306647</v>
+        <v>2.3066469999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>914.806000</v>
+        <v>914.80600000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.264000</v>
+        <v>-165.26400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>8314.452129</v>
+        <v>8314.4521289999993</v>
       </c>
       <c r="L19" s="1">
-        <v>2.309570</v>
+        <v>2.3095699999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>938.122000</v>
+        <v>938.12199999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.973000</v>
+        <v>-117.973</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>8324.579903</v>
+        <v>8324.5799029999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.312383</v>
+        <v>2.3123830000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>945.023000</v>
+        <v>945.02300000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>8335.077234</v>
+        <v>8335.0772340000003</v>
       </c>
       <c r="V19" s="1">
         <v>2.315299</v>
       </c>
       <c r="W19" s="1">
-        <v>951.616000</v>
+        <v>951.61599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.616400</v>
+        <v>-87.616399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>8345.591124</v>
+        <v>8345.5911240000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.318220</v>
+        <v>2.3182200000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.965000</v>
+        <v>958.96500000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.377400</v>
+        <v>-76.377399999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>8356.071893</v>
+        <v>8356.0718930000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.321131</v>
+        <v>2.3211309999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.172000</v>
+        <v>-74.171999999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8366.294935</v>
+        <v>8366.2949349999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.323971</v>
+        <v>2.3239709999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.044000</v>
+        <v>971.04399999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.940800</v>
+        <v>-78.940799999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>8376.820538</v>
+        <v>8376.8205379999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.326895</v>
+        <v>2.3268949999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.137000</v>
+        <v>979.13699999999994</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.437000</v>
+        <v>-90.436999999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>8387.545067</v>
+        <v>8387.5450669999991</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.329874</v>
+        <v>2.3298739999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.943000</v>
+        <v>988.94299999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.982000</v>
+        <v>-107.982</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>8398.602349</v>
+        <v>8398.6023490000007</v>
       </c>
       <c r="AZ19" s="1">
         <v>2.332945</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.136000</v>
+        <v>997.13599999999997</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>8409.286207</v>
+        <v>8409.2862069999992</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.335913</v>
+        <v>2.3359130000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.110000</v>
+        <v>1035.1099999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.834000</v>
+        <v>-194.834</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>8419.882208</v>
+        <v>8419.8822080000009</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.338856</v>
+        <v>2.3388559999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.370000</v>
+        <v>1100.3699999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.386000</v>
+        <v>-311.38600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>8430.711858</v>
+        <v>8430.7118580000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.341864</v>
+        <v>2.3418640000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-496.452000</v>
+        <v>-496.452</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>8441.257302</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.344794</v>
+        <v>2.3447939999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1326.920000</v>
+        <v>1326.92</v>
       </c>
       <c r="BV19" s="1">
-        <v>-700.284000</v>
+        <v>-700.28399999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>8451.914351</v>
+        <v>8451.9143509999994</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.347754</v>
+        <v>2.3477540000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1462.520000</v>
+        <v>1462.52</v>
       </c>
       <c r="CA19" s="1">
-        <v>-918.700000</v>
+        <v>-918.7</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>8464.604981</v>
+        <v>8464.6049810000004</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.351279</v>
+        <v>2.3512789999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.640000</v>
+        <v>1821.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1438.350000</v>
+        <v>-1438.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>8293.965335</v>
+        <v>8293.9653350000008</v>
       </c>
       <c r="B20" s="1">
-        <v>2.303879</v>
+        <v>2.3038789999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>896.934000</v>
+        <v>896.93399999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>8304.372395</v>
+        <v>8304.3723950000003</v>
       </c>
       <c r="G20" s="1">
-        <v>2.306770</v>
+        <v>2.3067700000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>914.874000</v>
+        <v>914.87400000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.689000</v>
+        <v>-165.68899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>8314.741787</v>
+        <v>8314.7417870000008</v>
       </c>
       <c r="L20" s="1">
-        <v>2.309650</v>
+        <v>2.30965</v>
       </c>
       <c r="M20" s="1">
-        <v>937.953000</v>
+        <v>937.95299999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.041000</v>
+        <v>-118.041</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>8324.930079</v>
+        <v>8324.9300789999998</v>
       </c>
       <c r="Q20" s="1">
         <v>2.312481</v>
       </c>
       <c r="R20" s="1">
-        <v>944.987000</v>
+        <v>944.98699999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>8335.421952</v>
+        <v>8335.4219520000006</v>
       </c>
       <c r="V20" s="1">
-        <v>2.315395</v>
+        <v>2.3153950000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>951.717000</v>
+        <v>951.71699999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.574600</v>
+        <v>-87.574600000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>8345.939123</v>
+        <v>8345.9391230000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.318316</v>
+        <v>2.3183159999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.998000</v>
+        <v>958.99800000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.295500</v>
+        <v>-76.295500000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>8356.413636</v>
+        <v>8356.4136359999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.321226</v>
+        <v>2.3212259999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.777000</v>
+        <v>963.77700000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.215500</v>
+        <v>-74.215500000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>8366.991846</v>
+        <v>8366.9918460000008</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.324164</v>
+        <v>2.3241640000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.064000</v>
+        <v>971.06399999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.960700</v>
+        <v>-78.960700000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>8377.179674</v>
+        <v>8377.1796740000009</v>
       </c>
       <c r="AP20" s="1">
         <v>2.326994</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.137000</v>
+        <v>979.13699999999994</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.436100</v>
+        <v>-90.436099999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>8387.935387</v>
+        <v>8387.9353869999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.329982</v>
+        <v>2.3299820000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.956000</v>
+        <v>988.95600000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.952000</v>
+        <v>-107.952</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>8398.959965</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.333044</v>
+        <v>2.3330440000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.132000</v>
+        <v>997.13199999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.464000</v>
+        <v>-123.464</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>8409.941422</v>
+        <v>8409.9414219999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.336095</v>
+        <v>2.3360949999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.100000</v>
+        <v>1035.0999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.862000</v>
+        <v>-194.86199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>8420.560241</v>
+        <v>8420.5602409999992</v>
       </c>
       <c r="BJ20" s="1">
         <v>2.339045</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.380000</v>
+        <v>1100.3800000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.427000</v>
+        <v>-311.42700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>8430.835890</v>
+        <v>8430.8358900000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.341899</v>
+        <v>2.3418990000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-496.433000</v>
+        <v>-496.43299999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>8441.368413</v>
+        <v>8441.3684130000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.344825</v>
+        <v>2.3448250000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1326.940000</v>
+        <v>1326.94</v>
       </c>
       <c r="BV20" s="1">
-        <v>-700.256000</v>
+        <v>-700.25599999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>8452.336438</v>
+        <v>8452.3364380000003</v>
       </c>
       <c r="BY20" s="1">
         <v>2.347871</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1462.610000</v>
+        <v>1462.61</v>
       </c>
       <c r="CA20" s="1">
-        <v>-918.630000</v>
+        <v>-918.63</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>8465.142677</v>
+        <v>8465.1426769999998</v>
       </c>
       <c r="CD20" s="1">
         <v>2.351429</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.140000</v>
+        <v>1821.14</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1436.720000</v>
+        <v>-1436.72</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>8294.241607</v>
+        <v>8294.2416069999999</v>
       </c>
       <c r="B21" s="1">
-        <v>2.303956</v>
+        <v>2.3039559999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>897.226000</v>
+        <v>897.226</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.404000</v>
+        <v>-195.404</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>8304.626872</v>
+        <v>8304.6268720000007</v>
       </c>
       <c r="G21" s="1">
-        <v>2.306841</v>
+        <v>2.3068409999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>914.723000</v>
+        <v>914.72299999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.512000</v>
+        <v>-165.512</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>8315.085485</v>
+        <v>8315.0854849999996</v>
       </c>
       <c r="L21" s="1">
-        <v>2.309746</v>
+        <v>2.3097460000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>938.159000</v>
+        <v>938.15899999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.911000</v>
+        <v>-117.911</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>8325.281246</v>
+        <v>8325.2812460000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.312578</v>
+        <v>2.3125779999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>945.046000</v>
+        <v>945.04600000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>8335.766213</v>
+        <v>8335.7662130000008</v>
       </c>
       <c r="V21" s="1">
-        <v>2.315491</v>
+        <v>2.3154910000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>951.713000</v>
+        <v>951.71299999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.617800</v>
+        <v>-87.617800000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>8346.636498</v>
+        <v>8346.6364979999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.318510</v>
+        <v>2.3185099999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.021000</v>
+        <v>959.02099999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.316600</v>
+        <v>-76.316599999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>8357.125893</v>
+        <v>8357.1258930000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.321424</v>
+        <v>2.3214239999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.772000</v>
+        <v>963.77200000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.225400</v>
+        <v>-74.225399999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>8367.344470</v>
+        <v>8367.34447</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.324262</v>
+        <v>2.3242620000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.067000</v>
+        <v>971.06700000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.950100</v>
+        <v>-78.950100000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>8377.540233</v>
+        <v>8377.5402329999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.327095</v>
+        <v>2.3270949999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.153000</v>
+        <v>979.15300000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.447900</v>
+        <v>-90.447900000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>8388.297962</v>
+        <v>8388.2979620000006</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.330083</v>
+        <v>2.3300830000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.957000</v>
+        <v>988.95699999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.970000</v>
+        <v>-107.97</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>8399.615219</v>
+        <v>8399.6152189999993</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.333226</v>
+        <v>2.3332259999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.137000</v>
+        <v>997.13699999999994</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.447000</v>
+        <v>-123.447</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>8410.398238</v>
+        <v>8410.3982379999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.336222</v>
+        <v>2.3362219999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.100000</v>
+        <v>1035.0999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.884000</v>
+        <v>-194.88399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>8420.668400</v>
+        <v>8420.6684000000005</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.339075</v>
+        <v>2.3390749999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.401000</v>
+        <v>-311.40100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>8431.241617</v>
+        <v>8431.2416169999997</v>
       </c>
       <c r="BO21" s="1">
         <v>2.342012</v>
       </c>
       <c r="BP21" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-496.459000</v>
+        <v>-496.459</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>8441.805389</v>
+        <v>8441.8053889999992</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.344946</v>
+        <v>2.3449460000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1326.990000</v>
+        <v>1326.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-700.305000</v>
+        <v>-700.30499999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>8452.764983</v>
+        <v>8452.7649829999991</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.347990</v>
+        <v>2.3479899999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1462.500000</v>
+        <v>1462.5</v>
       </c>
       <c r="CA21" s="1">
-        <v>-918.634000</v>
+        <v>-918.63400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>8465.684309</v>
+        <v>8465.6843090000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.351579</v>
+        <v>2.3515790000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1820.620000</v>
+        <v>1820.62</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1438.020000</v>
+        <v>-1438.02</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>8294.585830</v>
+        <v>8294.58583</v>
       </c>
       <c r="B22" s="1">
         <v>2.304052</v>
       </c>
       <c r="C22" s="1">
-        <v>896.994000</v>
+        <v>896.99400000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.207000</v>
+        <v>-195.20699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>8304.969083</v>
       </c>
       <c r="G22" s="1">
-        <v>2.306936</v>
+        <v>2.3069359999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>915.052000</v>
+        <v>915.05200000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.677000</v>
+        <v>-165.67699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>8315.430730</v>
+        <v>8315.43073</v>
       </c>
       <c r="L22" s="1">
-        <v>2.309842</v>
+        <v>2.3098420000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>938.325000</v>
+        <v>938.32500000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.029000</v>
+        <v>-118.029</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>8325.974654</v>
+        <v>8325.9746539999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.312771</v>
+        <v>2.3127710000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>945.053000</v>
+        <v>945.053</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.192000</v>
+        <v>-102.19199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>8336.451647</v>
+        <v>8336.4516469999999</v>
       </c>
       <c r="V22" s="1">
-        <v>2.315681</v>
+        <v>2.3156810000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>951.731000</v>
+        <v>951.73099999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.584600</v>
+        <v>-87.584599999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>8346.983698</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.318607</v>
+        <v>2.3186070000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.010000</v>
+        <v>959.01</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.204100</v>
+        <v>-76.204099999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>8357.445811</v>
+        <v>8357.4458109999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.321513</v>
+        <v>2.3215129999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.779000</v>
+        <v>963.779</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.217700</v>
+        <v>-74.217699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>8367.689686</v>
+        <v>8367.6896859999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.324358</v>
+        <v>2.3243580000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.052000</v>
+        <v>971.05200000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.951300</v>
+        <v>-78.951300000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>8378.205863</v>
+        <v>8378.2058629999992</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.327279</v>
+        <v>2.3272789999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.162000</v>
+        <v>979.16200000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.450800</v>
+        <v>-90.450800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>8388.971560</v>
+        <v>8388.97156</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.330270</v>
+        <v>2.3302700000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.962000</v>
+        <v>988.96199999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.974000</v>
+        <v>-107.974</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>8400.038299</v>
+        <v>8400.0382989999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.333344</v>
+        <v>2.3333439999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.135000</v>
+        <v>997.13499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.456000</v>
+        <v>-123.456</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>8410.761772</v>
+        <v>8410.7617719999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.336323</v>
+        <v>2.3363230000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.864000</v>
+        <v>-194.864</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>8421.031481</v>
@@ -5801,951 +6217,951 @@
         <v>2.339175</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.398000</v>
+        <v>-311.39800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>8431.639377</v>
+        <v>8431.6393769999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.342122</v>
+        <v>2.3421219999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-496.452000</v>
+        <v>-496.452</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>8442.234419</v>
+        <v>8442.2344190000003</v>
       </c>
       <c r="BT22" s="1">
         <v>2.345065</v>
       </c>
       <c r="BU22" s="1">
-        <v>1327.030000</v>
+        <v>1327.03</v>
       </c>
       <c r="BV22" s="1">
-        <v>-700.355000</v>
+        <v>-700.35500000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>8453.188573</v>
+        <v>8453.1885729999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.348108</v>
+        <v>2.3481079999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1462.530000</v>
+        <v>1462.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-918.639000</v>
+        <v>-918.63900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>8466.221973</v>
+        <v>8466.2219729999997</v>
       </c>
       <c r="CD22" s="1">
         <v>2.351728</v>
       </c>
       <c r="CE22" s="1">
-        <v>1821.920000</v>
+        <v>1821.92</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1437.650000</v>
+        <v>-1437.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>8294.928087</v>
+        <v>8294.9280870000002</v>
       </c>
       <c r="B23" s="1">
-        <v>2.304147</v>
+        <v>2.3041469999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>897.014000</v>
+        <v>897.01400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.097000</v>
+        <v>-195.09700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>8305.314329</v>
+        <v>8305.3143290000007</v>
       </c>
       <c r="G23" s="1">
         <v>2.307032</v>
       </c>
       <c r="H23" s="1">
-        <v>914.699000</v>
+        <v>914.69899999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.732000</v>
+        <v>-165.732</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>8316.121130</v>
+        <v>8316.1211299999995</v>
       </c>
       <c r="L23" s="1">
-        <v>2.310034</v>
+        <v>2.3100339999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>938.297000</v>
+        <v>938.29700000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.991000</v>
+        <v>-117.991</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>8326.324856</v>
+        <v>8326.3248559999993</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.312868</v>
+        <v>2.3128679999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>945.039000</v>
+        <v>945.03899999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>8336.793422</v>
+        <v>8336.7934220000006</v>
       </c>
       <c r="V23" s="1">
-        <v>2.315776</v>
+        <v>2.3157760000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>951.706000</v>
+        <v>951.70600000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.599200</v>
+        <v>-87.599199999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>8347.332912</v>
+        <v>8347.3329119999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.318704</v>
+        <v>2.3187039999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.956000</v>
+        <v>958.95600000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.345500</v>
+        <v>-76.345500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>8358.093624</v>
+        <v>8358.0936239999992</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.321693</v>
+        <v>2.3216929999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.774000</v>
+        <v>963.774</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.219100</v>
+        <v>-74.219099999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>8368.345892</v>
+        <v>8368.3458919999994</v>
       </c>
       <c r="AK23" s="1">
         <v>2.324541</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.052000</v>
+        <v>971.05200000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.931900</v>
+        <v>-78.931899999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>8378.649287</v>
+        <v>8378.6492870000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.327403</v>
+        <v>2.3274029999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.151000</v>
+        <v>979.15099999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.448900</v>
+        <v>-90.448899999999995</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>8389.424873</v>
+        <v>8389.4248729999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.330396</v>
+        <v>2.3303959999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.942000</v>
+        <v>988.94200000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.967000</v>
+        <v>-107.967</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>8400.425146</v>
+        <v>8400.4251459999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.333451</v>
+        <v>2.3334510000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>8411.122892</v>
+        <v>8411.1228919999994</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.336423</v>
+        <v>2.3364229999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.856000</v>
+        <v>-194.85599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>8421.408399</v>
+        <v>8421.4083989999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.339280</v>
+        <v>2.33928</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.396000</v>
+        <v>-311.39600000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>8432.060017</v>
+        <v>8432.0600169999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.342239</v>
+        <v>2.3422390000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-496.471000</v>
+        <v>-496.471</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>8442.644114</v>
+        <v>8442.6441140000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.345179</v>
+        <v>2.3451789999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1327.110000</v>
+        <v>1327.11</v>
       </c>
       <c r="BV23" s="1">
-        <v>-700.343000</v>
+        <v>-700.34299999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>8453.627060</v>
+        <v>8453.6270600000007</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.348230</v>
+        <v>2.34823</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1462.600000</v>
+        <v>1462.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-918.711000</v>
+        <v>-918.71100000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>8466.763093</v>
+        <v>8466.7630929999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.351879</v>
+        <v>2.3518789999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1820.730000</v>
+        <v>1820.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1436.930000</v>
+        <v>-1436.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>8295.609077</v>
+        <v>8295.6090769999992</v>
       </c>
       <c r="B24" s="1">
-        <v>2.304336</v>
+        <v>2.3043360000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>897.134000</v>
+        <v>897.13400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.997000</v>
+        <v>-194.99700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>8305.992328</v>
+        <v>8305.9923280000003</v>
       </c>
       <c r="G24" s="1">
-        <v>2.307220</v>
+        <v>2.30722</v>
       </c>
       <c r="H24" s="1">
-        <v>915.015000</v>
+        <v>915.01499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.538000</v>
+        <v>-165.53800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>8316.468329</v>
+        <v>8316.4683289999994</v>
       </c>
       <c r="L24" s="1">
-        <v>2.310130</v>
+        <v>2.31013</v>
       </c>
       <c r="M24" s="1">
-        <v>938.220000</v>
+        <v>938.22</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.931000</v>
+        <v>-117.931</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>8326.674013</v>
+        <v>8326.6740129999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.312965</v>
+        <v>2.3129650000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>945.017000</v>
+        <v>945.01700000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>8337.139597</v>
+        <v>8337.1395969999994</v>
       </c>
       <c r="V24" s="1">
-        <v>2.315872</v>
+        <v>2.3158720000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>951.693000</v>
+        <v>951.69299999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.535900</v>
+        <v>-87.535899999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>8347.981153</v>
+        <v>8347.9811530000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.318884</v>
+        <v>2.3188840000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.059000</v>
+        <v>959.05899999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.274900</v>
+        <v>-76.274900000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>8358.475010</v>
+        <v>8358.4750100000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.321799</v>
+        <v>2.3217989999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.762000</v>
+        <v>963.76199999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.198200</v>
+        <v>-74.1982</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>8368.736254</v>
+        <v>8368.7362539999995</v>
       </c>
       <c r="AK24" s="1">
         <v>2.324649</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.062000</v>
+        <v>971.06200000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.943800</v>
+        <v>-78.943799999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>8379.012359</v>
+        <v>8379.0123590000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.327503</v>
+        <v>2.3275030000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.142000</v>
+        <v>979.14200000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.455800</v>
+        <v>-90.455799999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>8389.789928</v>
+        <v>8389.7899280000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.330497</v>
+        <v>2.3304969999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.955000</v>
+        <v>988.95500000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.957000</v>
+        <v>-107.95699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>8400.780283</v>
+        <v>8400.7802830000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.333550</v>
+        <v>2.3335499999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.107000</v>
+        <v>997.10699999999997</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.465000</v>
+        <v>-123.465</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>8411.533579</v>
+        <v>8411.5335790000008</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.336537</v>
+        <v>2.3365369999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.110000</v>
+        <v>1035.1099999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.862000</v>
+        <v>-194.86199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>8421.828046</v>
+        <v>8421.8280460000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.339397</v>
+        <v>2.3393969999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.368000</v>
+        <v>-311.36799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>8432.456294</v>
+        <v>8432.4562939999996</v>
       </c>
       <c r="BO24" s="1">
         <v>2.342349</v>
       </c>
       <c r="BP24" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-496.464000</v>
+        <v>-496.464</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>8443.078115</v>
+        <v>8443.0781150000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.345299</v>
+        <v>2.3452989999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1327.140000</v>
+        <v>1327.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-700.360000</v>
+        <v>-700.36</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>8454.049621</v>
+        <v>8454.0496210000001</v>
       </c>
       <c r="BY24" s="1">
         <v>2.348347</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1462.640000</v>
+        <v>1462.64</v>
       </c>
       <c r="CA24" s="1">
-        <v>-918.743000</v>
+        <v>-918.74300000000005</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>8467.303746</v>
+        <v>8467.3037459999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.352029</v>
+        <v>2.3520289999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1821.530000</v>
+        <v>1821.53</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1438.690000</v>
+        <v>-1438.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>8295.953798</v>
+        <v>8295.9537980000005</v>
       </c>
       <c r="B25" s="1">
-        <v>2.304432</v>
+        <v>2.3044319999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>897.055000</v>
+        <v>897.05499999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.198000</v>
+        <v>-195.19800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>8306.349975</v>
+        <v>8306.3499749999992</v>
       </c>
       <c r="G25" s="1">
-        <v>2.307319</v>
+        <v>2.3073190000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>914.867000</v>
+        <v>914.86699999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.473000</v>
+        <v>-165.47300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>8316.813050</v>
+        <v>8316.8130500000007</v>
       </c>
       <c r="L25" s="1">
-        <v>2.310226</v>
+        <v>2.3102260000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>938.232000</v>
+        <v>938.23199999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.054000</v>
+        <v>-118.054</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>8327.320332</v>
+        <v>8327.3203319999993</v>
       </c>
       <c r="Q25" s="1">
         <v>2.313145</v>
       </c>
       <c r="R25" s="1">
-        <v>945.008000</v>
+        <v>945.00800000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>8337.787405</v>
+        <v>8337.7874049999991</v>
       </c>
       <c r="V25" s="1">
         <v>2.316052</v>
       </c>
       <c r="W25" s="1">
-        <v>951.679000</v>
+        <v>951.67899999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.565200</v>
+        <v>-87.565200000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>8348.379471</v>
+        <v>8348.3794710000002</v>
       </c>
       <c r="AA25" s="1">
         <v>2.318994</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.927000</v>
+        <v>958.92700000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.312800</v>
+        <v>-76.312799999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>8358.817250</v>
+        <v>8358.8172500000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.321894</v>
+        <v>2.3218939999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.792000</v>
+        <v>963.79200000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.216000</v>
+        <v>-74.215999999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8369.084932</v>
+        <v>8369.0849319999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.324746</v>
+        <v>2.3247460000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.054000</v>
+        <v>971.05399999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.949900</v>
+        <v>-78.9499</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>8379.373986</v>
+        <v>8379.3739860000005</v>
       </c>
       <c r="AP25" s="1">
         <v>2.327604</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.167000</v>
+        <v>979.16700000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.441800</v>
+        <v>-90.441800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>8390.157464</v>
+        <v>8390.1574639999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.330599</v>
+        <v>2.3305989999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.931000</v>
+        <v>988.93100000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.960000</v>
+        <v>-107.96</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>8401.194937</v>
+        <v>8401.1949370000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.333665</v>
+        <v>2.3336649999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.126000</v>
+        <v>997.12599999999998</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>8411.843579</v>
+        <v>8411.8435790000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.336623</v>
+        <v>2.3366229999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.140000</v>
+        <v>1035.1400000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.881000</v>
+        <v>-194.881</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>8422.157389</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.339488</v>
+        <v>2.3394879999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.360000</v>
+        <v>1100.3599999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.413000</v>
+        <v>-311.41300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>8432.877887</v>
+        <v>8432.8778870000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.342466</v>
+        <v>2.3424659999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-496.449000</v>
+        <v>-496.44900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>8443.504194</v>
+        <v>8443.5041939999992</v>
       </c>
       <c r="BT25" s="1">
         <v>2.345418</v>
       </c>
       <c r="BU25" s="1">
-        <v>1327.170000</v>
+        <v>1327.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-700.359000</v>
+        <v>-700.35900000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>8454.474692</v>
+        <v>8454.4746919999998</v>
       </c>
       <c r="BY25" s="1">
         <v>2.348465</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1462.560000</v>
+        <v>1462.56</v>
       </c>
       <c r="CA25" s="1">
-        <v>-918.661000</v>
+        <v>-918.66099999999994</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>8467.842865</v>
+        <v>8467.8428650000005</v>
       </c>
       <c r="CD25" s="1">
         <v>2.352179</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.720000</v>
+        <v>1821.72</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1436.540000</v>
+        <v>-1436.54</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>8296.296038</v>
+        <v>8296.2960380000004</v>
       </c>
       <c r="B26" s="1">
-        <v>2.304527</v>
+        <v>2.3045270000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>896.908000</v>
+        <v>896.90800000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.179000</v>
+        <v>-195.179</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>8307.006646</v>
+        <v>8307.0066459999998</v>
       </c>
       <c r="G26" s="1">
-        <v>2.307502</v>
+        <v>2.3075019999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>914.978000</v>
+        <v>914.97799999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.298000</v>
+        <v>-165.298</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>8317.458376</v>
+        <v>8317.4583760000005</v>
       </c>
       <c r="L26" s="1">
-        <v>2.310405</v>
+        <v>2.3104049999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>938.169000</v>
+        <v>938.16899999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.923000</v>
+        <v>-117.923</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>8327.719082</v>
+        <v>8327.7190819999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.313255</v>
+        <v>2.3132549999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>945.046000</v>
+        <v>945.04600000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.150000</v>
+        <v>-102.15</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>8338.167309</v>
+        <v>8338.1673090000004</v>
       </c>
       <c r="V26" s="1">
-        <v>2.316158</v>
+        <v>2.3161580000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>951.782000</v>
+        <v>951.78200000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.522500</v>
+        <v>-87.522499999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>8348.726638</v>
+        <v>8348.7266380000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.319091</v>
+        <v>2.3190909999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.849000</v>
+        <v>958.84900000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.291700</v>
+        <v>-76.291700000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>8359.162001</v>
+        <v>8359.1620010000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.321989</v>
+        <v>2.3219889999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.789000</v>
+        <v>963.78899999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.198100</v>
+        <v>-74.198099999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>8369.435109</v>
@@ -6754,150 +7170,151 @@
         <v>2.324843</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.061000</v>
+        <v>971.06100000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.956400</v>
+        <v>-78.956400000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>8379.795073</v>
+        <v>8379.7950729999993</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.327721</v>
+        <v>2.3277209999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.130000</v>
+        <v>979.13</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.463400</v>
+        <v>-90.463399999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>8390.579064</v>
+        <v>8390.5790639999996</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.330716</v>
+        <v>2.3307159999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.962000</v>
+        <v>988.96199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.965000</v>
+        <v>-107.965</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>8401.499022</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.333750</v>
+        <v>2.3337500000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.127000</v>
+        <v>997.12699999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.459000</v>
+        <v>-123.459</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>8412.205627</v>
+        <v>8412.2056269999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.336724</v>
+        <v>2.3367239999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.120000</v>
+        <v>1035.1199999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.852000</v>
+        <v>-194.852</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>8422.552701</v>
+        <v>8422.5527010000005</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.339598</v>
+        <v>2.3395980000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.350000</v>
+        <v>1100.3499999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.400000</v>
+        <v>-311.39999999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>8433.277663</v>
+        <v>8433.2776630000008</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.342577</v>
+        <v>2.3425769999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-496.428000</v>
+        <v>-496.428</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>8444.071106</v>
+        <v>8444.0711059999994</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.345575</v>
+        <v>2.3455750000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1327.220000</v>
+        <v>1327.22</v>
       </c>
       <c r="BV26" s="1">
-        <v>-700.417000</v>
+        <v>-700.41700000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>8454.920594</v>
+        <v>8454.9205939999993</v>
       </c>
       <c r="BY26" s="1">
         <v>2.348589</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1462.550000</v>
+        <v>1462.55</v>
       </c>
       <c r="CA26" s="1">
-        <v>-918.671000</v>
+        <v>-918.67100000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>8468.383040</v>
+        <v>8468.3830400000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.352329</v>
+        <v>2.3523290000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1820.390000</v>
+        <v>1820.39</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1437.900000</v>
+        <v>-1437.9</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>